--- a/data/trans_bre/P11_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.600962663982052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.65489943015103</v>
+        <v>2.654899430151028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02408928956069615</v>
@@ -649,7 +649,7 @@
         <v>0.1907733665726115</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5530387521209209</v>
+        <v>0.5530387521209205</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.877738431776777</v>
+        <v>-3.155003888902287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.920505544786854</v>
+        <v>2.368279984831963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.915253939475614</v>
+        <v>-1.78736071228539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.02529308737845248</v>
+        <v>-0.1043481179605014</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5585657135118309</v>
+        <v>-0.568852269361678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7692076327857931</v>
+        <v>1.410876375663966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4932546307615125</v>
+        <v>-0.4807920509058188</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.03077473388635978</v>
+        <v>-0.02640453830112034</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.629364189376169</v>
+        <v>2.826299024093059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.813524676986002</v>
+        <v>7.719367641653387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.313863893783137</v>
+        <v>3.452290631698946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.333077245028189</v>
+        <v>5.141319884548395</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9777563963926711</v>
+        <v>1.08455207123014</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1.705413350358751</v>
+        <v>1.775557772812813</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.480674918935957</v>
+        <v>1.409937334661695</v>
       </c>
     </row>
     <row r="7">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.17678608003663</v>
+        <v>-1.320408241622862</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.26429417030711</v>
+        <v>-1.28761468020408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5174478406251919</v>
+        <v>0.4958789000722891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.04158241113451189</v>
+        <v>0.1142127589249301</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4914079037363572</v>
+        <v>-0.4902023901648077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2992226896148514</v>
+        <v>-0.3204814975018577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.001080352110846957</v>
+        <v>-0.01267618385862715</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01172749150144979</v>
+        <v>0.01041680222428981</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.085886934249531</v>
+        <v>3.991713408873371</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.474655082080281</v>
+        <v>5.380650391522088</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.881968375071687</v>
+        <v>5.911363144620531</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.673539445991746</v>
+        <v>5.606889284606559</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.257406602903525</v>
+        <v>3.623082239677198</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.022500618736662</v>
+        <v>2.097834678184804</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.145120334347339</v>
+        <v>5.977764129504993</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.549300240898977</v>
+        <v>1.526744088806074</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>8.688741997237988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.173450654020246</v>
+        <v>6.173450654020245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.38992641671399</v>
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.239194943687418</v>
+        <v>1.119063923888638</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.129145107940301</v>
+        <v>-1.927299460451753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.349649712934152</v>
+        <v>3.338231218295495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.322166470475305</v>
+        <v>1.151369909382372</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.192282678702999</v>
+        <v>0.2156368306920517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2491016475451738</v>
+        <v>-0.2391988670860934</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6688532646687674</v>
+        <v>0.706927877286583</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1114436855784837</v>
+        <v>0.07390322019202346</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.63817987434341</v>
+        <v>10.98845019963426</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.680813090570514</v>
+        <v>7.25399898269248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.56102857296368</v>
+        <v>14.95892826844847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.56678693588703</v>
+        <v>11.01925036168047</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.57087900877362</v>
+        <v>3.589306584387188</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.180403605988502</v>
+        <v>1.233682270200936</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.681349227931991</v>
+        <v>5.478033498529402</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.383979220746582</v>
+        <v>1.311269577451253</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>3.445989355302479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.3021927221916756</v>
+        <v>-0.3021927221916729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1638857152249556</v>
@@ -947,7 +947,7 @@
         <v>0.6952547640593216</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02917614988834986</v>
+        <v>-0.02917614988834959</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.066453933870276</v>
+        <v>-1.106191130728859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.049045577629433</v>
+        <v>-2.024243669193795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8034418543619528</v>
+        <v>1.08555141092923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.598733949463172</v>
+        <v>-2.496923880305844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2570757708303643</v>
+        <v>-0.2691514041232527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2645101851942604</v>
+        <v>-0.2660250608525481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1400051335395557</v>
+        <v>0.1493375192786737</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2223262357905356</v>
+        <v>-0.2215619008773907</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.395361815786552</v>
+        <v>2.607587225706982</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.226865155890239</v>
+        <v>2.91993911695625</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.003455600591014</v>
+        <v>5.976816616084133</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.846723784070377</v>
+        <v>2.166921847980021</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8136037714663832</v>
+        <v>0.8958040452758603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5461289925255111</v>
+        <v>0.5001724861251059</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.482450266665639</v>
+        <v>1.404366457022081</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2023687275575285</v>
+        <v>0.2431175161201017</v>
       </c>
     </row>
     <row r="16">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.119821557770637</v>
+        <v>-3.4396630570771</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.082237005265055</v>
+        <v>4.850294666612845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.082561368877266</v>
+        <v>2.029181355924241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.42892330440005</v>
+        <v>5.283226767955574</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5042482103062684</v>
+        <v>-0.5470308582637279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7641834835186327</v>
+        <v>0.7318973559851907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2199986813640499</v>
+        <v>0.2550600159176947</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4523660728170397</v>
+        <v>0.442584711822429</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.5816222380729</v>
+        <v>2.637041709281297</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.1081195531045</v>
+        <v>11.03797980950587</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.549853656196502</v>
+        <v>8.336232022121942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.12448205044309</v>
+        <v>11.82693803713743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9151984208731802</v>
+        <v>1.000834407951363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.147712093692433</v>
+        <v>3.148053275323611</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.663305406944565</v>
+        <v>1.675955802114444</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.612319914460896</v>
+        <v>1.56617021361273</v>
       </c>
     </row>
     <row r="19">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.411213529044506</v>
+        <v>2.157449980724599</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.246278606699747</v>
+        <v>7.416224280522641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.110014244943323</v>
+        <v>7.31582616174412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.704489489396373</v>
+        <v>8.624063674193962</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5485579964156765</v>
+        <v>0.5884200017090313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.324585144876331</v>
+        <v>1.329893051957495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.364223130828263</v>
+        <v>2.2846825695164</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.611579694985046</v>
+        <v>1.695211266155455</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.401054779501672</v>
+        <v>6.272230322750823</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.76988304874147</v>
+        <v>12.8666614360568</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.92249917686141</v>
+        <v>11.98420727680852</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.31713211789338</v>
+        <v>14.35905695896655</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.75804734282374</v>
+        <v>8.398411799377577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>17.30551437228831</v>
+        <v>18.25623963875623</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>35.47247241255095</v>
+        <v>30.94150013024425</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>13.49904029587775</v>
+        <v>13.37675184336147</v>
       </c>
     </row>
     <row r="22">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6577241109218358</v>
+        <v>0.706832623517581</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.582023410468399</v>
+        <v>3.278578403528308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.832462485900485</v>
+        <v>3.821326193734669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.285141979949097</v>
+        <v>3.29088977369732</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1553544277321131</v>
+        <v>0.1678862202868505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6359634807748314</v>
+        <v>0.5799537287933346</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8319275680772945</v>
+        <v>0.8023089027095238</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3848918894243272</v>
+        <v>0.3741115821076696</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.659951436569915</v>
+        <v>2.81683837280606</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.186368810407253</v>
+        <v>5.959948127555156</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.327168658937738</v>
+        <v>6.271177803432105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.836933175815002</v>
+        <v>5.69031538393899</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8587207753088167</v>
+        <v>0.8864557234228091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.402852138658219</v>
+        <v>1.323744326035399</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.73409432616988</v>
+        <v>1.690209175374577</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8073182306063477</v>
+        <v>0.7756278684216719</v>
       </c>
     </row>
     <row r="25">
